--- a/Excel/pivot table.xlsx
+++ b/Excel/pivot table.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tears\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amyami/Desktop/DA_Galvanize/elNino_laNina_natural_disasters_US/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41941129-E7A0-470B-B7DD-BD216EE6D7E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5D9D44-D33C-FF4A-B812-C55345D996DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="744" yWindow="1536" windowWidth="22536" windowHeight="12816" xr2:uid="{2D3C9A58-04CE-D540-8617-F254D5490377}"/>
+    <workbookView xWindow="740" yWindow="1540" windowWidth="22540" windowHeight="12820" xr2:uid="{2D3C9A58-04CE-D540-8617-F254D5490377}"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="2" r:id="rId1"/>
-    <sheet name="master_data" sheetId="1" r:id="rId2"/>
+    <sheet name="disaster_count" sheetId="1" r:id="rId2"/>
     <sheet name="disaster_event" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">disaster_event!$G$1:$H$239</definedName>
-    <definedName name="counting_severe_disaster_events_each_year" localSheetId="1">master_data!$A$1:$K$40</definedName>
+    <definedName name="counting_severe_disaster_events_each_year" localSheetId="1">disaster_count!$A$1:$K$40</definedName>
     <definedName name="events_US_1980_2018" localSheetId="2">disaster_event!$A$1:$F$239</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
-    <pivotCache cacheId="8" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -76,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="318">
   <si>
     <t>year</t>
   </si>
@@ -120,15 +119,9 @@
     <t>la Nina</t>
   </si>
   <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Values</t>
-  </si>
-  <si>
     <t xml:space="preserve">drought </t>
   </si>
   <si>
@@ -903,9 +896,6 @@
     <t>Year  (clean up from begin date)</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>1980</t>
   </si>
   <si>
@@ -1033,6 +1023,12 @@
   </si>
   <si>
     <t>Average of Deaths</t>
+  </si>
+  <si>
+    <t>Year type</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1038,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1130,7 +1126,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Amy Hong" refreshedDate="43479.677988888892" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="39" xr:uid="{4FD2974A-F8ED-4046-A813-6F76884EC34A}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K40" sheet="master_data"/>
+    <worksheetSource ref="A1:K40" sheet="disaster_count"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="year" numFmtId="0">
@@ -3970,639 +3966,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16021A06-7FEA-4F44-8589-AC0E18CBAB54}" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A19:F193" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="39">
-        <item x="37"/>
-        <item x="36"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="6"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="174">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Count of Disaster" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Average of Deaths" fld="5" subtotal="average" baseField="6" baseItem="0" numFmtId="1"/>
-    <dataField name="Sum of Deaths" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Average of Total CPI-Adjusted Cost (Millions of Dollars)" fld="4" subtotal="average" baseField="6" baseItem="0" numFmtId="164"/>
-    <dataField name="Sum of Total CPI-Adjusted Cost (Millions of Dollars)" fld="4" baseField="6" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0402198-8DCC-5646-B611-2B21FA0EF1A2}" name="PivotTable1" cacheId="9" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0402198-8DCC-5646-B611-2B21FA0EF1A2}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Disaster" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Year type">
   <location ref="A4:E14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisCol" showAll="0">
@@ -4737,6 +4101,638 @@
     <dataField name="wildfire" fld="9" baseField="0" baseItem="0"/>
     <dataField name="winter storm" fld="10" baseField="0" baseItem="0"/>
     <dataField name="Sum of total disaster" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16021A06-7FEA-4F44-8589-AC0E18CBAB54}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year">
+  <location ref="A19:F193" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="39">
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="6"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="174">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Count of Disaster" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Average of Deaths" fld="5" subtotal="average" baseField="6" baseItem="0" numFmtId="1"/>
+    <dataField name="Sum of Deaths" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Average of Total CPI-Adjusted Cost (Millions of Dollars)" fld="4" subtotal="average" baseField="6" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Total CPI-Adjusted Cost (Millions of Dollars)" fld="4" baseField="6" baseItem="0" numFmtId="164"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -5058,34 +5054,37 @@
   <dimension ref="A4:F193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.09765625" customWidth="1"/>
-    <col min="7" max="21" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="32" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="42" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="32" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="42" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -5096,17 +5095,17 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -5121,9 +5120,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -5138,9 +5137,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -5155,9 +5154,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>17</v>
@@ -5172,9 +5171,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -5189,9 +5188,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
@@ -5206,9 +5205,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
@@ -5223,9 +5222,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
         <v>48</v>
@@ -5240,29 +5239,29 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F19" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -5280,9 +5279,9 @@
         <v>36666.299999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -5300,9 +5299,9 @@
         <v>32464.799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -5320,9 +5319,9 @@
         <v>2289.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -5340,9 +5339,9 @@
         <v>1911.6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -5360,9 +5359,9 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -5380,9 +5379,9 @@
         <v>1658.8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -5400,9 +5399,9 @@
         <v>1164.2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B27" s="1">
         <v>5</v>
@@ -5420,9 +5419,9 @@
         <v>12444.9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -5440,9 +5439,9 @@
         <v>8105.3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
@@ -5460,9 +5459,9 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -5480,9 +5479,9 @@
         <v>1767.6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
@@ -5500,9 +5499,9 @@
         <v>20562.400000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -5520,9 +5519,9 @@
         <v>7647.4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
@@ -5540,9 +5539,9 @@
         <v>5175</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -5560,9 +5559,9 @@
         <v>7740</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -5580,9 +5579,9 @@
         <v>2591.6999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
@@ -5600,9 +5599,9 @@
         <v>2591.6999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B37" s="1">
         <v>5</v>
@@ -5620,9 +5619,9 @@
         <v>13592.600000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -5640,9 +5639,9 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
@@ -5660,9 +5659,9 @@
         <v>8724.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -5680,9 +5679,9 @@
         <v>2000.5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
@@ -5700,9 +5699,9 @@
         <v>5366.7000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -5720,9 +5719,9 @@
         <v>4148.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -5740,9 +5739,9 @@
         <v>1218.4000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -5760,9 +5759,9 @@
         <v>43608.7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
@@ -5780,9 +5779,9 @@
         <v>43608.7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B46" s="1">
         <v>5</v>
@@ -5800,9 +5799,9 @@
         <v>31687.399999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -5820,9 +5819,9 @@
         <v>6246.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -5840,9 +5839,9 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -5860,9 +5859,9 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -5880,9 +5879,9 @@
         <v>18719.8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -5900,9 +5899,9 @@
         <v>1414.1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B52" s="1">
         <v>3</v>
@@ -5920,9 +5919,9 @@
         <v>10349.300000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
@@ -5940,9 +5939,9 @@
         <v>1993.6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
@@ -5960,9 +5959,9 @@
         <v>6732</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
@@ -5980,9 +5979,9 @@
         <v>1623.7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B56" s="1">
         <v>4</v>
@@ -6000,9 +5999,9 @@
         <v>15813.3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
@@ -6020,9 +6019,9 @@
         <v>5625.9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
@@ -6040,9 +6039,9 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
@@ -6060,9 +6059,9 @@
         <v>2810.4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
@@ -6080,9 +6079,9 @@
         <v>6171</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B61" s="1">
         <v>7</v>
@@ -6100,9 +6099,9 @@
         <v>65416.7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B62" s="1">
         <v>4</v>
@@ -6120,9 +6119,9 @@
         <v>5789.6999999999989</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B63" s="1">
         <v>2</v>
@@ -6140,9 +6139,9 @@
         <v>55083</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -6160,9 +6159,9 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B65" s="1">
         <v>4</v>
@@ -6180,9 +6179,9 @@
         <v>51537.7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
@@ -6200,9 +6199,9 @@
         <v>2226.6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
@@ -6220,9 +6219,9 @@
         <v>37100.800000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
@@ -6240,9 +6239,9 @@
         <v>2427.6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
@@ -6260,9 +6259,9 @@
         <v>9782.7000000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B70" s="1">
         <v>6</v>
@@ -6280,9 +6279,9 @@
         <v>13323.2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
@@ -6300,9 +6299,9 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
@@ -6320,9 +6319,9 @@
         <v>1694.6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B73" s="1">
         <v>1</v>
@@ -6340,9 +6339,9 @@
         <v>1717.4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
@@ -6360,9 +6359,9 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B75" s="1">
         <v>2</v>
@@ -6380,9 +6379,9 @@
         <v>6944.2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B76" s="1">
         <v>5</v>
@@ -6400,9 +6399,9 @@
         <v>26250.7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B77" s="1">
         <v>1</v>
@@ -6420,9 +6419,9 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
@@ -6440,9 +6439,9 @@
         <v>9217.2000000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B79" s="1">
         <v>3</v>
@@ -6460,9 +6459,9 @@
         <v>12833.5</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B80" s="1">
         <v>4</v>
@@ -6480,9 +6479,9 @@
         <v>17620.2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
@@ -6500,9 +6499,9 @@
         <v>2920.1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B82" s="1">
         <v>1</v>
@@ -6520,9 +6519,9 @@
         <v>1643.5</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B83" s="1">
         <v>1</v>
@@ -6540,9 +6539,9 @@
         <v>8161.5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B84" s="1">
         <v>1</v>
@@ -6560,9 +6559,9 @@
         <v>4895.1000000000004</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B85" s="1">
         <v>4</v>
@@ -6580,9 +6579,9 @@
         <v>13707.4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B86" s="1">
         <v>2</v>
@@ -6600,9 +6599,9 @@
         <v>10575.9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B87" s="1">
         <v>2</v>
@@ -6620,9 +6619,9 @@
         <v>3131.5</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B88" s="1">
         <v>9</v>
@@ -6640,9 +6639,9 @@
         <v>29337.8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B89" s="1">
         <v>1</v>
@@ -6660,9 +6659,9 @@
         <v>5503.9</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B90" s="1">
         <v>1</v>
@@ -6680,9 +6679,9 @@
         <v>1469.7</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -6700,9 +6699,9 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B92" s="1">
         <v>2</v>
@@ -6720,9 +6719,9 @@
         <v>4320.7000000000007</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B93" s="1">
         <v>3</v>
@@ -6740,9 +6739,9 @@
         <v>11956.8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
@@ -6760,9 +6759,9 @@
         <v>2186.6999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B95" s="1">
         <v>5</v>
@@ -6780,9 +6779,9 @@
         <v>19763.2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B96" s="1">
         <v>1</v>
@@ -6800,9 +6799,9 @@
         <v>3823.4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B97" s="1">
         <v>1</v>
@@ -6820,9 +6819,9 @@
         <v>3078.7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B98" s="1">
         <v>1</v>
@@ -6840,9 +6839,9 @@
         <v>9931.4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B99" s="1">
         <v>2</v>
@@ -6860,9 +6859,9 @@
         <v>2929.7</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B100" s="1">
         <v>3</v>
@@ -6880,9 +6879,9 @@
         <v>10388.6</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B101" s="1">
         <v>1</v>
@@ -6900,9 +6899,9 @@
         <v>7445.7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B102" s="1">
         <v>1</v>
@@ -6920,9 +6919,9 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B103" s="1">
         <v>1</v>
@@ -6940,9 +6939,9 @@
         <v>1601.9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B104" s="1">
         <v>2</v>
@@ -6960,9 +6959,9 @@
         <v>16728.300000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B105" s="1">
         <v>1</v>
@@ -6980,9 +6979,9 @@
         <v>4456.6000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -7000,9 +6999,9 @@
         <v>12271.7</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B107" s="1">
         <v>4</v>
@@ -7020,9 +7019,9 @@
         <v>19196.100000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B108" s="1">
         <v>1</v>
@@ -7040,9 +7039,9 @@
         <v>12775.8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B109" s="1">
         <v>1</v>
@@ -7060,9 +7059,9 @@
         <v>2973.5</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B110" s="1">
         <v>1</v>
@@ -7080,9 +7079,9 @@
         <v>1568.4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B111" s="1">
         <v>1</v>
@@ -7100,9 +7099,9 @@
         <v>1878.4</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B112" s="1">
         <v>7</v>
@@ -7120,9 +7119,9 @@
         <v>31096.6</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B113" s="1">
         <v>1</v>
@@ -7140,9 +7139,9 @@
         <v>6945.1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B114" s="1">
         <v>4</v>
@@ -7160,9 +7159,9 @@
         <v>11121.099999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B115" s="1">
         <v>1</v>
@@ -7180,9 +7179,9 @@
         <v>7622.8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B116" s="1">
         <v>1</v>
@@ -7200,9 +7199,9 @@
         <v>5407.6</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B117" s="1">
         <v>5</v>
@@ -7220,9 +7219,9 @@
         <v>74542.2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B118" s="1">
         <v>1</v>
@@ -7240,9 +7239,9 @@
         <v>1378.9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B119" s="1">
         <v>4</v>
@@ -7260,9 +7259,9 @@
         <v>73163.299999999988</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B120" s="1">
         <v>6</v>
@@ -7280,9 +7279,9 @@
         <v>220894</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B121" s="1">
         <v>1</v>
@@ -7300,9 +7299,9 @@
         <v>1946.7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B122" s="1">
         <v>1</v>
@@ -7320,9 +7319,9 @@
         <v>1141.8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B123" s="1">
         <v>4</v>
@@ -7340,9 +7339,9 @@
         <v>217805.5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B124" s="1">
         <v>7</v>
@@ -7360,9 +7359,9 @@
         <v>19343.199999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B125" s="1">
         <v>1</v>
@@ -7380,9 +7379,9 @@
         <v>7617.4</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B126" s="1">
         <v>1</v>
@@ -7400,9 +7399,9 @@
         <v>1932.4</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B127" s="1">
         <v>4</v>
@@ -7420,9 +7419,9 @@
         <v>7930.3</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B128" s="1">
         <v>1</v>
@@ -7440,9 +7439,9 @@
         <v>1863.1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B129" s="1">
         <v>5</v>
@@ -7460,9 +7459,9 @@
         <v>15290.1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B130" s="1">
         <v>1</v>
@@ -7480,9 +7479,9 @@
         <v>4422.8999999999996</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B131" s="1">
         <v>2</v>
@@ -7500,9 +7499,9 @@
         <v>4305.3999999999996</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B132" s="1">
         <v>1</v>
@@ -7520,9 +7519,9 @@
         <v>3135.2</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
@@ -7540,9 +7539,9 @@
         <v>3426.6</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B134" s="1">
         <v>11</v>
@@ -7560,9 +7559,9 @@
         <v>75580.700000000012</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B135" s="1">
         <v>1</v>
@@ -7580,9 +7579,9 @@
         <v>8341.7999999999993</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B136" s="1">
         <v>1</v>
@@ -7600,9 +7599,9 @@
         <v>11850.7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B137" s="1">
         <v>5</v>
@@ -7620,9 +7619,9 @@
         <v>9576.5</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B138" s="1">
         <v>3</v>
@@ -7640,9 +7639,9 @@
         <v>44343.1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B139" s="1">
         <v>1</v>
@@ -7660,9 +7659,9 @@
         <v>1468.6</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B140" s="1">
         <v>7</v>
@@ -7680,9 +7679,9 @@
         <v>13857.299999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B141" s="1">
         <v>1</v>
@@ -7700,9 +7699,9 @@
         <v>4155.3999999999996</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B142" s="1">
         <v>5</v>
@@ -7720,9 +7719,9 @@
         <v>8495.2999999999993</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B143" s="1">
         <v>1</v>
@@ -7740,9 +7739,9 @@
         <v>1206.5999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B144" s="1">
         <v>6</v>
@@ -7760,9 +7759,9 @@
         <v>15188.5</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B145" s="1">
         <v>2</v>
@@ -7780,9 +7779,9 @@
         <v>4768.2000000000007</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B146" s="1">
         <v>4</v>
@@ -7800,9 +7799,9 @@
         <v>10420.299999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6">
       <c r="A147" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B147" s="1">
         <v>16</v>
@@ -7820,9 +7819,9 @@
         <v>77403.799999999988</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B148" s="1">
         <v>1</v>
@@ -7840,9 +7839,9 @@
         <v>13684.3</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B149" s="1">
         <v>2</v>
@@ -7860,9 +7859,9 @@
         <v>5686.7</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B150" s="1">
         <v>9</v>
@@ -7880,9 +7879,9 @@
         <v>35664.1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B151" s="1">
         <v>2</v>
@@ -7900,9 +7899,9 @@
         <v>18247.599999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B152" s="1">
         <v>1</v>
@@ -7920,9 +7919,9 @@
         <v>2075.6999999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6">
       <c r="A153" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B153" s="1">
         <v>1</v>
@@ -7940,9 +7939,9 @@
         <v>2045.4</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B154" s="1">
         <v>11</v>
@@ -7960,9 +7959,9 @@
         <v>128625.7</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B155" s="1">
         <v>1</v>
@@ -7980,9 +7979,9 @@
         <v>33304.199999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B156" s="1">
         <v>7</v>
@@ -8000,9 +7999,9 @@
         <v>18130.400000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B157" s="1">
         <v>2</v>
@@ -8020,9 +8019,9 @@
         <v>75261.400000000009</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B158" s="1">
         <v>1</v>
@@ -8040,9 +8039,9 @@
         <v>1929.7</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B159" s="1">
         <v>9</v>
@@ -8060,9 +8059,9 @@
         <v>24875.899999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B160" s="1">
         <v>1</v>
@@ -8080,9 +8079,9 @@
         <v>11364.1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6">
       <c r="A161" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B161" s="1">
         <v>2</v>
@@ -8100,9 +8099,9 @@
         <v>2818.3</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B162" s="1">
         <v>6</v>
@@ -8120,9 +8119,9 @@
         <v>10693.5</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6">
       <c r="A163" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B163" s="1">
         <v>8</v>
@@ -8140,9 +8139,9 @@
         <v>18756.900000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6">
       <c r="A164" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B164" s="1">
         <v>1</v>
@@ -8160,9 +8159,9 @@
         <v>4287.6000000000004</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6">
       <c r="A165" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B165" s="1">
         <v>1</v>
@@ -8180,9 +8179,9 @@
         <v>1114.3</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6">
       <c r="A166" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B166" s="1">
         <v>5</v>
@@ -8200,9 +8199,9 @@
         <v>11008.5</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6">
       <c r="A167" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B167" s="1">
         <v>1</v>
@@ -8220,9 +8219,9 @@
         <v>2346.5</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6">
       <c r="A168" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B168" s="1">
         <v>10</v>
@@ -8240,9 +8239,9 @@
         <v>23954.9</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6">
       <c r="A169" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B169" s="1">
         <v>1</v>
@@ -8260,9 +8259,9 @@
         <v>4823.3</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6">
       <c r="A170" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B170" s="1">
         <v>2</v>
@@ -8280,9 +8279,9 @@
         <v>4858.7</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6">
       <c r="A171" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B171" s="1">
         <v>5</v>
@@ -8300,9 +8299,9 @@
         <v>7824.9999999999991</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6">
       <c r="A172" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B172" s="1">
         <v>1</v>
@@ -8320,9 +8319,9 @@
         <v>3248.7</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6">
       <c r="A173" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B173" s="1">
         <v>1</v>
@@ -8340,9 +8339,9 @@
         <v>3199.2</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6">
       <c r="A174" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B174" s="1">
         <v>15</v>
@@ -8360,9 +8359,9 @@
         <v>49107.199999999997</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6">
       <c r="A175" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B175" s="1">
         <v>1</v>
@@ -8380,9 +8379,9 @@
         <v>3660.2</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6">
       <c r="A176" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B176" s="1">
         <v>4</v>
@@ -8400,9 +8399,9 @@
         <v>16896.2</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6">
       <c r="A177" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B177" s="1">
         <v>8</v>
@@ -8420,9 +8419,9 @@
         <v>15412.1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6">
       <c r="A178" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B178" s="1">
         <v>1</v>
@@ -8440,9 +8439,9 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6">
       <c r="A179" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B179" s="1">
         <v>1</v>
@@ -8460,9 +8459,9 @@
         <v>2538.6999999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6">
       <c r="A180" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B180" s="1">
         <v>16</v>
@@ -8480,9 +8479,9 @@
         <v>312558.89999999997</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6">
       <c r="A181" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B181" s="1">
         <v>1</v>
@@ -8500,9 +8499,9 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6">
       <c r="A182" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B182" s="1">
         <v>2</v>
@@ -8520,9 +8519,9 @@
         <v>3285.4</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6">
       <c r="A183" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B183" s="1">
         <v>1</v>
@@ -8540,9 +8539,9 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6">
       <c r="A184" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B184" s="1">
         <v>8</v>
@@ -8560,9 +8559,9 @@
         <v>17043.899999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6">
       <c r="A185" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B185" s="1">
         <v>3</v>
@@ -8580,9 +8579,9 @@
         <v>270274.5</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6">
       <c r="A186" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B186" s="1">
         <v>1</v>
@@ -8600,9 +8599,9 @@
         <v>18365.099999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6">
       <c r="A187" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B187" s="1">
         <v>11</v>
@@ -8620,9 +8619,9 @@
         <v>38992.300000000003</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6">
       <c r="A188" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B188" s="1">
         <v>1</v>
@@ -8640,9 +8639,9 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6">
       <c r="A189" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B189" s="1">
         <v>6</v>
@@ -8660,9 +8659,9 @@
         <v>8212.4999999999982</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6">
       <c r="A190" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B190" s="1">
         <v>1</v>
@@ -8680,9 +8679,9 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6">
       <c r="A191" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B191" s="1">
         <v>1</v>
@@ -8700,9 +8699,9 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6">
       <c r="A192" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B192" s="1">
         <v>2</v>
@@ -8720,9 +8719,9 @@
         <v>3279.8</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6">
       <c r="A193" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B193" s="1">
         <v>238</v>
@@ -8750,25 +8749,25 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8803,7 +8802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1980</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1981</v>
       </c>
@@ -8873,7 +8872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1982</v>
       </c>
@@ -8908,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1983</v>
       </c>
@@ -8943,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1984</v>
       </c>
@@ -8978,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1985</v>
       </c>
@@ -9013,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1986</v>
       </c>
@@ -9048,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>1987</v>
       </c>
@@ -9083,7 +9082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>1988</v>
       </c>
@@ -9118,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>1989</v>
       </c>
@@ -9153,7 +9152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>1990</v>
       </c>
@@ -9188,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>1991</v>
       </c>
@@ -9223,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>1992</v>
       </c>
@@ -9258,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>1993</v>
       </c>
@@ -9293,7 +9292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>1994</v>
       </c>
@@ -9328,7 +9327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>1995</v>
       </c>
@@ -9363,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>1996</v>
       </c>
@@ -9398,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>1997</v>
       </c>
@@ -9433,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>1998</v>
       </c>
@@ -9468,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>1999</v>
       </c>
@@ -9503,7 +9502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>2001</v>
       </c>
@@ -9573,7 +9572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>2002</v>
       </c>
@@ -9608,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>2003</v>
       </c>
@@ -9643,7 +9642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>2004</v>
       </c>
@@ -9678,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>2005</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>2006</v>
       </c>
@@ -9748,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>2007</v>
       </c>
@@ -9783,7 +9782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>2008</v>
       </c>
@@ -9818,7 +9817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>2009</v>
       </c>
@@ -9853,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>2010</v>
       </c>
@@ -9888,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -9923,7 +9922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>2012</v>
       </c>
@@ -9958,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>2013</v>
       </c>
@@ -9993,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>2014</v>
       </c>
@@ -10028,7 +10027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>2015</v>
       </c>
@@ -10063,7 +10062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>2016</v>
       </c>
@@ -10098,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>2017</v>
       </c>
@@ -10133,7 +10132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -10181,52 +10180,52 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="10" max="10" width="10.796875" style="7"/>
-    <col min="11" max="11" width="13.69921875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="7"/>
+    <col min="11" max="11" width="13.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="34">
       <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G1" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H1" s="5"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>20180601</v>
@@ -10245,12 +10244,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>20180601</v>
@@ -10269,12 +10268,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>20180913</v>
@@ -10293,12 +10292,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>20180618</v>
@@ -10317,12 +10316,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>20180606</v>
@@ -10341,12 +10340,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>20180513</v>
@@ -10365,12 +10364,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>20180501</v>
@@ -10389,12 +10388,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>20180413</v>
@@ -10413,12 +10412,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>20180318</v>
@@ -10437,12 +10436,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>20180301</v>
@@ -10461,12 +10460,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>20180103</v>
@@ -10485,12 +10484,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>20170601</v>
@@ -10509,12 +10508,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>20170301</v>
@@ -10533,12 +10532,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>20170919</v>
@@ -10557,12 +10556,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>20170906</v>
@@ -10581,12 +10580,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>20170825</v>
@@ -10605,12 +10604,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>20170627</v>
@@ -10629,12 +10628,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>20170612</v>
@@ -10653,12 +10652,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>20170609</v>
@@ -10677,12 +10676,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>20170508</v>
@@ -10701,12 +10700,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22">
         <v>20170425</v>
@@ -10725,12 +10724,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>20170326</v>
@@ -10749,12 +10748,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>20170314</v>
@@ -10773,12 +10772,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>20170306</v>
@@ -10797,12 +10796,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>20170228</v>
@@ -10821,12 +10820,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27">
         <v>20170208</v>
@@ -10845,12 +10844,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>20170120</v>
@@ -10869,12 +10868,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>20160601</v>
@@ -10893,12 +10892,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>20160101</v>
@@ -10917,12 +10916,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>20161008</v>
@@ -10941,12 +10940,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32">
         <v>20160812</v>
@@ -10965,12 +10964,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>20160728</v>
@@ -10989,12 +10988,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34">
         <v>20160622</v>
@@ -11013,12 +11012,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>20160521</v>
@@ -11037,12 +11036,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>20160508</v>
@@ -11061,12 +11060,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>20160426</v>
@@ -11085,12 +11084,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>20160417</v>
@@ -11109,12 +11108,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>20160410</v>
@@ -11133,12 +11132,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40">
         <v>20160323</v>
@@ -11157,12 +11156,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41">
         <v>20160317</v>
@@ -11181,12 +11180,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>20160308</v>
@@ -11205,12 +11204,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>20160222</v>
@@ -11229,12 +11228,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C44">
         <v>20150101</v>
@@ -11253,12 +11252,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C45">
         <v>20151226</v>
@@ -11277,12 +11276,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C46">
         <v>20150601</v>
@@ -11301,12 +11300,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>20151001</v>
@@ -11325,12 +11324,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C48">
         <v>20150621</v>
@@ -11349,12 +11348,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49">
         <v>20150523</v>
@@ -11373,12 +11372,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50">
         <v>20150506</v>
@@ -11397,12 +11396,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C51">
         <v>20150418</v>
@@ -11421,12 +11420,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C52">
         <v>20150407</v>
@@ -11445,12 +11444,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C53">
         <v>20150214</v>
@@ -11469,12 +11468,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C54">
         <v>20140101</v>
@@ -11493,12 +11492,12 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C55">
         <v>20140929</v>
@@ -11517,12 +11516,12 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C56">
         <v>20140811</v>
@@ -11541,12 +11540,12 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C57">
         <v>20140603</v>
@@ -11565,12 +11564,12 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C58">
         <v>20140518</v>
@@ -11589,12 +11588,12 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C59">
         <v>20140427</v>
@@ -11613,12 +11612,12 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C60">
         <v>20140402</v>
@@ -11637,12 +11636,12 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C61">
         <v>20140105</v>
@@ -11661,12 +11660,12 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C62">
         <v>20130301</v>
@@ -11685,12 +11684,12 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C63">
         <v>20131117</v>
@@ -11709,12 +11708,12 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C64">
         <v>20130910</v>
@@ -11733,12 +11732,12 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C65">
         <v>20130806</v>
@@ -11757,12 +11756,12 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C66">
         <v>20130527</v>
@@ -11781,12 +11780,12 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C67">
         <v>20130518</v>
@@ -11805,12 +11804,12 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C68">
         <v>20130416</v>
@@ -11829,12 +11828,12 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C69">
         <v>20130407</v>
@@ -11853,12 +11852,12 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C70">
         <v>20130318</v>
@@ -11877,12 +11876,12 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C71">
         <v>20120101</v>
@@ -11901,12 +11900,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C72">
         <v>20120601</v>
@@ -11925,12 +11924,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C73">
         <v>20121030</v>
@@ -11949,12 +11948,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C74">
         <v>20120826</v>
@@ -11973,12 +11972,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C75">
         <v>20120629</v>
@@ -11997,12 +11996,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C76">
         <v>20120606</v>
@@ -12021,12 +12020,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C77">
         <v>20120525</v>
@@ -12045,12 +12044,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C78">
         <v>20120428</v>
@@ -12069,12 +12068,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C79">
         <v>20120413</v>
@@ -12093,12 +12092,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C80">
         <v>20120402</v>
@@ -12117,12 +12116,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C81">
         <v>20120302</v>
@@ -12141,12 +12140,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C82">
         <v>20110601</v>
@@ -12165,12 +12164,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C83">
         <v>20110901</v>
@@ -12189,12 +12188,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C84">
         <v>20110301</v>
@@ -12213,12 +12212,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C85">
         <v>20110826</v>
@@ -12237,12 +12236,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C86">
         <v>20110817</v>
@@ -12261,12 +12260,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C87">
         <v>20110710</v>
@@ -12285,12 +12284,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C88">
         <v>20110501</v>
@@ -12309,12 +12308,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C89">
         <v>20110618</v>
@@ -12333,12 +12332,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C90">
         <v>20110401</v>
@@ -12357,12 +12356,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C91">
         <v>20110522</v>
@@ -12381,12 +12380,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C92">
         <v>20110425</v>
@@ -12405,12 +12404,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C93">
         <v>20110419</v>
@@ -12429,12 +12428,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C94">
         <v>20110414</v>
@@ -12453,12 +12452,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C95">
         <v>20110408</v>
@@ -12477,12 +12476,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C96">
         <v>20110404</v>
@@ -12501,12 +12500,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C97">
         <v>20110201</v>
@@ -12525,12 +12524,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C98">
         <v>20101005</v>
@@ -12549,12 +12548,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C99">
         <v>20100720</v>
@@ -12573,12 +12572,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C100">
         <v>20100610</v>
@@ -12597,12 +12596,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C101">
         <v>20100510</v>
@@ -12621,12 +12620,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B102" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C102">
         <v>20100430</v>
@@ -12645,12 +12644,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B103" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C103">
         <v>20100301</v>
@@ -12669,12 +12668,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C104">
         <v>20090101</v>
@@ -12693,12 +12692,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B105" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C105">
         <v>20090601</v>
@@ -12717,12 +12716,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C106">
         <v>20090720</v>
@@ -12741,12 +12740,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C107">
         <v>20090609</v>
@@ -12765,12 +12764,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C108">
         <v>20090409</v>
@@ -12789,12 +12788,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C109">
         <v>20090325</v>
@@ -12813,12 +12812,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C110">
         <v>20090210</v>
@@ -12837,12 +12836,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C111">
         <v>20080101</v>
@@ -12861,12 +12860,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C112">
         <v>20080901</v>
@@ -12885,12 +12884,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B113" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C113">
         <v>20080912</v>
@@ -12909,12 +12908,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C114">
         <v>20080831</v>
@@ -12933,12 +12932,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C115">
         <v>20080723</v>
@@ -12957,12 +12956,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B116" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C116">
         <v>20080401</v>
@@ -12981,12 +12980,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C117">
         <v>20080606</v>
@@ -13005,12 +13004,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C118">
         <v>20080522</v>
@@ -13029,12 +13028,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C119">
         <v>20080409</v>
@@ -13053,12 +13052,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C120">
         <v>20080314</v>
@@ -13077,12 +13076,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C121">
         <v>20080205</v>
@@ -13101,12 +13100,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C122">
         <v>20070601</v>
@@ -13125,12 +13124,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B123" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C123">
         <v>20070601</v>
@@ -13149,12 +13148,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C124">
         <v>20070413</v>
@@ -13173,12 +13172,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B125" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C125">
         <v>20070404</v>
@@ -13197,12 +13196,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B126" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C126">
         <v>20070111</v>
@@ -13221,12 +13220,12 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B127" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C127">
         <v>20060101</v>
@@ -13245,12 +13244,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B128" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C128">
         <v>20061002</v>
@@ -13269,12 +13268,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C129">
         <v>20060301</v>
@@ -13293,12 +13292,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B130" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C130">
         <v>20060625</v>
@@ -13317,12 +13316,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B131" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C131">
         <v>20060413</v>
@@ -13341,12 +13340,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C132">
         <v>20060406</v>
@@ -13365,12 +13364,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C133">
         <v>20060308</v>
@@ -13389,12 +13388,12 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B134" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C134">
         <v>20051024</v>
@@ -13413,12 +13412,12 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B135" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C135">
         <v>20050920</v>
@@ -13437,12 +13436,12 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C136">
         <v>20050301</v>
@@ -13461,12 +13460,12 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C137">
         <v>20050825</v>
@@ -13485,12 +13484,12 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C138">
         <v>20050709</v>
@@ -13509,12 +13508,12 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C139">
         <v>20050324</v>
@@ -13533,12 +13532,12 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C140">
         <v>20040915</v>
@@ -13557,12 +13556,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C141">
         <v>20040912</v>
@@ -13581,12 +13580,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C142">
         <v>20040903</v>
@@ -13605,12 +13604,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B143" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C143">
         <v>20040813</v>
@@ -13629,12 +13628,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B144" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C144">
         <v>20040521</v>
@@ -13653,12 +13652,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B145" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C145">
         <v>20030901</v>
@@ -13677,12 +13676,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B146" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C146">
         <v>20030301</v>
@@ -13701,12 +13700,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B147" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C147">
         <v>20030918</v>
@@ -13725,12 +13724,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B148" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C148">
         <v>20030721</v>
@@ -13749,12 +13748,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B149" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C149">
         <v>20030704</v>
@@ -13773,12 +13772,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B150" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C150">
         <v>20030503</v>
@@ -13797,12 +13796,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B151" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C151">
         <v>20030404</v>
@@ -13821,12 +13820,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B152" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C152">
         <v>20020901</v>
@@ -13845,12 +13844,12 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B153" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C153">
         <v>20020301</v>
@@ -13869,12 +13868,12 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B154" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C154">
         <v>20020801</v>
@@ -13893,12 +13892,12 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B155" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C155">
         <v>20020427</v>
@@ -13917,12 +13916,12 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B156" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C156">
         <v>20010605</v>
@@ -13941,12 +13940,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B157" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C157">
         <v>20010406</v>
@@ -13965,12 +13964,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B158" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C158">
         <v>20000301</v>
@@ -13989,12 +13988,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B159" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C159">
         <v>20001003</v>
@@ -14013,12 +14012,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B160" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C160">
         <v>20000301</v>
@@ -14037,12 +14036,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B161" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C161">
         <v>19990914</v>
@@ -14061,12 +14060,12 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B162" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C162">
         <v>19990601</v>
@@ -14085,12 +14084,12 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B163" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C163">
         <v>19990503</v>
@@ -14109,12 +14108,12 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B164" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C164">
         <v>19990113</v>
@@ -14133,12 +14132,12 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B165" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C165">
         <v>19990101</v>
@@ -14157,12 +14156,12 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B166" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C166">
         <v>19981220</v>
@@ -14181,12 +14180,12 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B167" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C167">
         <v>19981016</v>
@@ -14205,12 +14204,12 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B168" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C168">
         <v>19980920</v>
@@ -14229,12 +14228,12 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B169" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C169">
         <v>19980601</v>
@@ -14253,12 +14252,12 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B170" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C170">
         <v>19980827</v>
@@ -14277,12 +14276,12 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B171" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C171">
         <v>19980808</v>
@@ -14301,12 +14300,12 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B172" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C172">
         <v>19980530</v>
@@ -14325,12 +14324,12 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B173" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C173">
         <v>19980515</v>
@@ -14349,12 +14348,12 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B174" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C174">
         <v>19971201</v>
@@ -14373,12 +14372,12 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B175" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C175">
         <v>19980105</v>
@@ -14397,12 +14396,12 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B176" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C176">
         <v>19970203</v>
@@ -14421,12 +14420,12 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B177" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C177">
         <v>19970228</v>
@@ -14445,12 +14444,12 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B178" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C178">
         <v>19970101</v>
@@ -14469,12 +14468,12 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B179" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C179">
         <v>19960905</v>
@@ -14493,12 +14492,12 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B180" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C180">
         <v>19960301</v>
@@ -14517,12 +14516,12 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B181" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C181">
         <v>19960207</v>
@@ -14541,12 +14540,12 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B182" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C182">
         <v>19960101</v>
@@ -14565,12 +14564,12 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B183" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C183">
         <v>19951004</v>
@@ -14589,12 +14588,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B184" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C184">
         <v>19950915</v>
@@ -14613,12 +14612,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B185" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C185">
         <v>19950801</v>
@@ -14637,12 +14636,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B186" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C186">
         <v>19950505</v>
@@ -14661,12 +14660,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B187" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C187">
         <v>19950101</v>
@@ -14685,12 +14684,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B188" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C188">
         <v>19940601</v>
@@ -14709,12 +14708,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B189" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C189">
         <v>19941016</v>
@@ -14733,12 +14732,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B190" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C190">
         <v>19940707</v>
@@ -14757,12 +14756,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B191" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C191">
         <v>19940425</v>
@@ -14781,12 +14780,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B192" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C192">
         <v>19940208</v>
@@ -14805,12 +14804,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C193">
         <v>19940117</v>
@@ -14829,12 +14828,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B194" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C194">
         <v>19930901</v>
@@ -14853,12 +14852,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B195" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C195">
         <v>19930601</v>
@@ -14877,12 +14876,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B196" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C196">
         <v>19930627</v>
@@ -14901,12 +14900,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B197" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C197">
         <v>19930311</v>
@@ -14925,12 +14924,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B198" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C198">
         <v>19921210</v>
@@ -14949,12 +14948,12 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B199" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C199">
         <v>19921121</v>
@@ -14973,12 +14972,12 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B200" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C200">
         <v>19920911</v>
@@ -14997,12 +14996,12 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B201" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C201">
         <v>19920823</v>
@@ -15021,12 +15020,12 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B202" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C202">
         <v>19920619</v>
@@ -15045,12 +15044,12 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B203" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C203">
         <v>19920428</v>
@@ -15069,12 +15068,12 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B204" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C204">
         <v>19920324</v>
@@ -15093,12 +15092,12 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B205" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C205">
         <v>19911001</v>
@@ -15117,12 +15116,12 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B206" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C206">
         <v>19910301</v>
@@ -15141,12 +15140,12 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B207" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C207">
         <v>19910818</v>
@@ -15165,12 +15164,12 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B208" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C208">
         <v>19910326</v>
@@ -15189,12 +15188,12 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B209" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C209">
         <v>19901218</v>
@@ -15213,12 +15212,12 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B210" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C210">
         <v>19900711</v>
@@ -15237,12 +15236,12 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B211" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C211">
         <v>19900511</v>
@@ -15261,12 +15260,12 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B212" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C212">
         <v>19891221</v>
@@ -15285,12 +15284,12 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B213" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C213">
         <v>19891223</v>
@@ -15309,12 +15308,12 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B214" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C214">
         <v>19890601</v>
@@ -15333,12 +15332,12 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B215" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C215">
         <v>19890921</v>
@@ -15357,12 +15356,12 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B216" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C216">
         <v>19890501</v>
@@ -15381,12 +15380,12 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B217" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C217">
         <v>19880601</v>
@@ -15405,12 +15404,12 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B218" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C218">
         <v>19860601</v>
@@ -15429,12 +15428,12 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B219" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C219">
         <v>19860214</v>
@@ -15453,12 +15452,12 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B220" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C220">
         <v>19851027</v>
@@ -15477,12 +15476,12 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B221" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C221">
         <v>19850926</v>
@@ -15501,12 +15500,12 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B222" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C222">
         <v>19850830</v>
@@ -15525,12 +15524,12 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B223" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C223">
         <v>19850120</v>
@@ -15549,12 +15548,12 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B224" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C224">
         <v>19850119</v>
@@ -15573,12 +15572,12 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B225" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C225">
         <v>19840613</v>
@@ -15597,12 +15596,12 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B226" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C226">
         <v>19840327</v>
@@ -15621,12 +15620,12 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B227" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C227">
         <v>19831215</v>
@@ -15645,12 +15644,12 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B228" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C228">
         <v>19830601</v>
@@ -15669,12 +15668,12 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B229" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C229">
         <v>19830817</v>
@@ -15693,12 +15692,12 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B230" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C230">
         <v>19821213</v>
@@ -15717,12 +15716,12 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B231" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C231">
         <v>19821201</v>
@@ -15741,12 +15740,12 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B232" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C232">
         <v>19820531</v>
@@ -15765,12 +15764,12 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B233" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C233">
         <v>19820402</v>
@@ -15789,12 +15788,12 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B234" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C234">
         <v>19820108</v>
@@ -15813,12 +15812,12 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B235" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C235">
         <v>19810505</v>
@@ -15837,12 +15836,12 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B236" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C236">
         <v>19810112</v>
@@ -15861,12 +15860,12 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B237" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C237">
         <v>19800601</v>
@@ -15885,12 +15884,12 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B238" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C238">
         <v>19800807</v>
@@ -15909,12 +15908,12 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B239" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C239">
         <v>19800410</v>
